--- a/melishbacklog.xlsx
+++ b/melishbacklog.xlsx
@@ -4979,8 +4979,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H112"/>
   <sheetViews>
-    <sheetView tabSelected="1" showRuler="0" topLeftCell="A19" workbookViewId="0">
-      <selection activeCell="C16" sqref="C16"/>
+    <sheetView tabSelected="1" showRuler="0" topLeftCell="A24" workbookViewId="0">
+      <selection activeCell="C78" sqref="C78"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
